--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA8E74C-A67B-C945-B513-7215C3182DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F68352A-D6BC-764E-8D64-3C32C5BC817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -476,7 +476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.768999999999998</c:v>
+                  <c:v>37.881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2802,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2927,7 +2927,7 @@
         <v>0.25280000000000002</v>
       </c>
       <c r="G5" s="1">
-        <v>37.768999999999998</v>
+        <v>37.881</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F68352A-D6BC-764E-8D64-3C32C5BC817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3C1E2-0278-0242-A6DA-04FB703C99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -464,7 +464,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.25280000000000002</c:v>
+                  <c:v>0.25319999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,7 +533,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.25409999999999999</c:v>
+                  <c:v>0.2545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,7 +545,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.738999999999997</c:v>
+                  <c:v>37.872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2924,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>0.25280000000000002</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="G5" s="1">
         <v>37.881</v>
@@ -2950,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0.25409999999999999</v>
+        <v>0.2545</v>
       </c>
       <c r="G6" s="1">
-        <v>37.738999999999997</v>
+        <v>37.872</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3164,6 +3164,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3C1E2-0278-0242-A6DA-04FB703C99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E968E7D-0C65-6A47-8BAA-67F4A1BBDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>RGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>25(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34(21,19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41(21,19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38(25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,6 +569,219 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34(21,19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25169999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41(21,19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.735999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>38(25)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.729999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -572,7 +797,7 @@
         <c:axId val="1683003455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -651,8 +876,8 @@
         <c:axId val="1683005103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44"/>
-          <c:min val="29"/>
+          <c:max val="40"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -670,6 +895,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -711,6 +950,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2801,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="135" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2972,9 +3212,15 @@
       <c r="D7" s="1">
         <v>53.343000000000004</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>37.936</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2992,9 +3238,15 @@
       <c r="D8" s="1">
         <v>50.926000000000002</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>37.735999999999997</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3012,9 +3264,15 @@
       <c r="D9" s="1">
         <v>47.7</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="G9" s="1">
+        <v>37.729999999999997</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E968E7D-0C65-6A47-8BAA-67F4A1BBDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22716835-5112-E345-9B7A-8F2EC51D15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>RGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>38(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37(21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.23300000000000001</c:v>
+                  <c:v>0.23419999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +699,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37.735999999999997</c:v>
+                  <c:v>37.779000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,6 +783,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37(21)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.24629999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4414-AA4B-A0E7-D8669BC3B20D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3041,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="135" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3242,10 +3321,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>37.735999999999997</v>
+        <v>37.779000000000003</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3290,9 +3369,15 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>37.759</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22716835-5112-E345-9B7A-8F2EC51D15FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99ED2CD-5905-9446-A8FB-B1EE467B5F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>RGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDMC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,14 +73,15 @@
   </si>
   <si>
     <t>41(21,19)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>38(25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>37(21)</t>
+  </si>
+  <si>
+    <t>Lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +136,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -371,7 +377,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -406,11 +412,14 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>Sheet1!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>0.17630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25700000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -418,11 +427,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4</c:f>
+              <c:f>Sheet1!$G$4:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>36.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37.741</c:v>
                 </c:pt>
               </c:numCache>
@@ -440,7 +452,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$5</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -475,11 +487,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5</c:f>
+              <c:f>Sheet1!$J$4:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>0.25319999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -487,11 +499,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5</c:f>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>37.881</c:v>
                 </c:pt>
               </c:numCache>
@@ -509,7 +521,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -544,11 +556,14 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>0.17219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.2545</c:v>
                 </c:pt>
               </c:numCache>
@@ -556,11 +571,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>36.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37.872</c:v>
                 </c:pt>
               </c:numCache>
@@ -578,7 +596,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>Sheet1!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -613,11 +631,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>Sheet1!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>0.25169999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -625,11 +643,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$7</c:f>
+              <c:f>Sheet1!$O$4:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>37.936</c:v>
                 </c:pt>
               </c:numCache>
@@ -643,84 +661,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$8</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41(21,19)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.23419999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>37.779000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4414-AA4B-A0E7-D8669BC3B20D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>38(25)</c:v>
+                  <c:v>37(21)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -757,24 +706,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$9</c:f>
+              <c:f>Sheet1!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.2525</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.24629999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$9</c:f>
+              <c:f>Sheet1!$Q$4:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>37.729999999999997</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>37.759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,20 +731,20 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4414-AA4B-A0E7-D8669BC3B20D}"/>
+              <c16:uniqueId val="{00000007-4414-AA4B-A0E7-D8669BC3B20D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$10</c:f>
+              <c:f>Sheet1!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37(21)</c:v>
+                  <c:v>38(25)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -832,24 +781,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$10</c:f>
+              <c:f>Sheet1!$R$4:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.24629999999999999</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.2525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$10</c:f>
+              <c:f>Sheet1!$S$4:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>37.759</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>37.729999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +806,76 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4414-AA4B-A0E7-D8669BC3B20D}"/>
+              <c16:uniqueId val="{00000008-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41(21,19)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.23419999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>37.779000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4414-AA4B-A0E7-D8669BC3B20D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1327,7 +1345,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1362,11 +1380,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4</c:f>
+              <c:f>Sheet1!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>0.32179999999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -1374,11 +1392,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4</c:f>
+              <c:f>Sheet1!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -3118,51 +3136,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="3"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3175,26 +3232,57 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>6.5520500000000004</v>
       </c>
@@ -3207,26 +3295,27 @@
       <c r="D4" s="1">
         <v>69.495999999999995</v>
       </c>
-      <c r="E4" s="1">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>37.741</v>
-      </c>
-      <c r="H4" s="1">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.32179999999999997</v>
-      </c>
-      <c r="J4" s="1">
-        <v>34.700000000000003</v>
-      </c>
+      <c r="E4" s="2">
+        <v>256</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>6.1318999999999999</v>
       </c>
@@ -3239,20 +3328,27 @@
       <c r="D5" s="1">
         <v>65.656000000000006</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.25319999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>37.881</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="2">
+        <v>512</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4.3970799999999999</v>
       </c>
@@ -3265,20 +3361,35 @@
       <c r="D6" s="1">
         <v>56.442</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.2545</v>
-      </c>
-      <c r="G6" s="1">
-        <v>37.872</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="E6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>36.344999999999999</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>36.463999999999999</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>3.11009</v>
       </c>
@@ -3291,20 +3402,59 @@
       <c r="D7" s="1">
         <v>53.343000000000004</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="2">
+        <v>2048</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>37.741</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="I7" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>37.881</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.2545</v>
+      </c>
+      <c r="M7" s="2">
+        <v>37.872</v>
+      </c>
+      <c r="N7" s="2">
         <v>0.25169999999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="O7" s="2">
         <v>37.936</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="P7" s="2">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>37.759</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.2525</v>
+      </c>
+      <c r="S7" s="2">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="U7" s="2">
+        <v>37.779000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>2.1868400000000001</v>
       </c>
@@ -3317,20 +3467,11 @@
       <c r="D8" s="1">
         <v>50.926000000000002</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>37.779000000000003</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="E8" s="2">
+        <v>4096</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>1.46624</v>
       </c>
@@ -3343,20 +3484,11 @@
       <c r="D9" s="1">
         <v>47.7</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.2525</v>
-      </c>
-      <c r="G9" s="1">
-        <v>37.729999999999997</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="E9" s="2">
+        <v>8192</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>0.93293999999999999</v>
       </c>
@@ -3369,20 +3501,8 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.24629999999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>37.759</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>0.53619000000000006</v>
       </c>
@@ -3395,14 +3515,14 @@
       <c r="D11" s="1">
         <v>39.484000000000002</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>0.26478000000000002</v>
       </c>
@@ -3415,14 +3535,14 @@
       <c r="D12" s="1">
         <v>34.988999999999997</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>0.12595999999999999</v>
       </c>
@@ -3435,14 +3555,14 @@
       <c r="D13" s="1">
         <v>32.954000000000001</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>6.3060000000000005E-2</v>
       </c>
@@ -3455,14 +3575,14 @@
       <c r="D14" s="1">
         <v>31.523</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>3.4349999999999999E-2</v>
       </c>
@@ -3475,14 +3595,14 @@
       <c r="D15" s="1">
         <v>29.949000000000002</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>1.9650000000000001E-2</v>
       </c>
@@ -3496,14 +3616,93 @@
         <v>28.298999999999999</v>
       </c>
     </row>
+    <row r="26" spans="14:19">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="14:19">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="14:19">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="14:19">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="14:19">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="14:19">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="14:19">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="14:19">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="14:19">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99ED2CD-5905-9446-A8FB-B1EE467B5F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886BC94-C14B-9D45-8F34-AB4C884BF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>RGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>bpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDMC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -82,6 +78,14 @@
   </si>
   <si>
     <t>Lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDMC(RGB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDMC(IR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.17630000000000001</c:v>
+                  <c:v>0.17330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25700000000000001</c:v>
@@ -432,7 +436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.344999999999999</c:v>
+                  <c:v>36.384999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.741</c:v>
@@ -452,7 +456,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -487,7 +491,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$9</c:f>
+              <c:f>Sheet1!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -499,7 +503,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$9</c:f>
+              <c:f>Sheet1!$I$4:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -521,7 +525,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -556,7 +560,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:f>Sheet1!$J$4:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -571,7 +575,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:f>Sheet1!$K$4:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -596,7 +600,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -631,24 +635,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$9</c:f>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.25169999999999998</c:v>
+                  <c:v>0.25040000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$4:$O$9</c:f>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.936</c:v>
+                  <c:v>37.947000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +669,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>Sheet1!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -706,7 +710,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$4:$P$9</c:f>
+              <c:f>Sheet1!$N$4:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -718,7 +722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$9</c:f>
+              <c:f>Sheet1!$O$4:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -740,7 +744,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,7 +785,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$4:$R$9</c:f>
+              <c:f>Sheet1!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -793,7 +797,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$4:$S$9</c:f>
+              <c:f>Sheet1!$Q$4:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -815,7 +819,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$2</c:f>
+              <c:f>Sheet1!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -850,24 +854,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$T$4:$T$9</c:f>
+              <c:f>Sheet1!$R$4:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.23419999999999999</c:v>
+                  <c:v>0.2329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$U$4:$U$9</c:f>
+              <c:f>Sheet1!$S$4:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.779000000000003</c:v>
+                  <c:v>37.747999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,7 +1349,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$F$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1380,10 +1384,13 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$9</c:f>
+              <c:f>Sheet1!$F$13:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>0.2142</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.32179999999999997</c:v>
                 </c:pt>
@@ -1392,10 +1399,13 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$9</c:f>
+              <c:f>Sheet1!$G$13:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>33.749000000000002</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
@@ -1406,6 +1416,144 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A16-814D-A9B7-34F4C437C80B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.3256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>34.722999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9514-5B47-8B92-11B0AFE4AFDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$13:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$13:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>34.654000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9514-5B47-8B92-11B0AFE4AFDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1424,7 +1572,7 @@
         <c:axId val="1683003455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1503,8 +1651,8 @@
         <c:axId val="1683005103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43"/>
-          <c:min val="28"/>
+          <c:max val="36"/>
+          <c:min val="31"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1522,6 +1670,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1563,7 +1725,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2766,14 +2928,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>283536</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>103370</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>720652</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>126998</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2802,14 +2964,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>29535</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>118139</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>466651</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>141767</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3138,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3152,10 +3314,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3170,8 +3332,8 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -3190,8 +3352,8 @@
         <v>19</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>21</v>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
@@ -3203,21 +3365,17 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
@@ -3273,12 +3431,6 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3312,8 +3464,6 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1">
@@ -3345,8 +3495,6 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1">
@@ -3365,29 +3513,27 @@
         <v>1024</v>
       </c>
       <c r="F6" s="2">
-        <v>0.17630000000000001</v>
+        <v>0.17330000000000001</v>
       </c>
       <c r="G6" s="5">
-        <v>36.344999999999999</v>
+        <v>36.384999999999998</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="J6" s="2">
         <v>0.17219999999999999</v>
       </c>
-      <c r="M6" s="2">
+      <c r="K6" s="2">
         <v>36.463999999999999</v>
       </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1">
@@ -3412,46 +3558,40 @@
         <v>37.741</v>
       </c>
       <c r="H7" s="2">
-        <v>0.32179999999999997</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>34.700000000000003</v>
+        <v>37.881</v>
       </c>
       <c r="J7" s="2">
-        <v>0.25319999999999998</v>
+        <v>0.2545</v>
       </c>
       <c r="K7" s="2">
-        <v>37.881</v>
+        <v>37.872</v>
       </c>
       <c r="L7" s="2">
-        <v>0.2545</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="M7" s="2">
-        <v>37.872</v>
+        <v>37.947000000000003</v>
       </c>
       <c r="N7" s="2">
-        <v>0.25169999999999998</v>
+        <v>0.24629999999999999</v>
       </c>
       <c r="O7" s="2">
-        <v>37.936</v>
+        <v>37.759</v>
       </c>
       <c r="P7" s="2">
-        <v>0.24629999999999999</v>
+        <v>0.2525</v>
       </c>
       <c r="Q7" s="2">
-        <v>37.759</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="R7" s="2">
-        <v>0.2525</v>
+        <v>0.2329</v>
       </c>
       <c r="S7" s="2">
-        <v>37.729999999999997</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="U7" s="2">
-        <v>37.779000000000003</v>
+        <v>37.747999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3501,6 +3641,29 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -3515,12 +3678,19 @@
       <c r="D11" s="1">
         <v>39.484000000000002</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>40</v>
+      </c>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
@@ -3535,12 +3705,25 @@
       <c r="D12" s="1">
         <v>34.988999999999997</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1">
@@ -3555,12 +3738,11 @@
       <c r="D13" s="1">
         <v>32.954000000000001</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="2">
+        <v>256</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1">
@@ -3575,12 +3757,11 @@
       <c r="D14" s="1">
         <v>31.523</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="E14" s="2">
+        <v>512</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1">
@@ -3595,12 +3776,15 @@
       <c r="D15" s="1">
         <v>29.949000000000002</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="E15" s="2">
+        <v>1024</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.2142</v>
+      </c>
+      <c r="G15" s="2">
+        <v>33.749000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1">
@@ -3615,8 +3799,39 @@
       <c r="D16" s="1">
         <v>28.298999999999999</v>
       </c>
+      <c r="E16" s="2">
+        <v>2048</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="G16" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.3256</v>
+      </c>
+      <c r="I16" s="2">
+        <v>34.722999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="K16" s="2">
+        <v>34.654000000000003</v>
+      </c>
     </row>
-    <row r="26" spans="14:19">
+    <row r="17" spans="5:19">
+      <c r="E17" s="2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19">
+      <c r="E18" s="2">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="26" spans="5:19">
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3624,7 +3839,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="14:19">
+    <row r="27" spans="5:19">
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -3632,7 +3847,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="14:19">
+    <row r="28" spans="5:19">
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3640,7 +3855,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="14:19">
+    <row r="29" spans="5:19">
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3648,7 +3863,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="14:19">
+    <row r="30" spans="5:19">
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3656,7 +3871,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="14:19">
+    <row r="31" spans="5:19">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3664,7 +3879,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="14:19">
+    <row r="32" spans="5:19">
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3689,17 +3904,21 @@
       <c r="S34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:S10"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:D1"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886BC94-C14B-9D45-8F34-AB4C884BF54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA5530-8C40-B441-BDA3-CCDDADB1E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -143,12 +143,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,7 +421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.17330000000000001</c:v>
+                  <c:v>0.17319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25700000000000001</c:v>
@@ -436,7 +436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.384999999999998</c:v>
+                  <c:v>36.392000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.741</c:v>
@@ -565,7 +565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.17219999999999999</c:v>
+                  <c:v>0.1699</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2545</c:v>
@@ -580,7 +580,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.463999999999999</c:v>
+                  <c:v>36.488</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.872</c:v>
@@ -640,7 +640,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.25040000000000001</c:v>
+                  <c:v>0.24970000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +652,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.947000000000003</c:v>
+                  <c:v>37.938000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +715,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.24629999999999999</c:v>
+                  <c:v>0.24660000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +727,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.759</c:v>
+                  <c:v>37.811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1389,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.2142</c:v>
+                  <c:v>0.21210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.32179999999999997</c:v>
@@ -1404,7 +1404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>33.749000000000002</c:v>
+                  <c:v>33.779000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.700000000000003</c:v>
@@ -3300,82 +3300,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>19</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
@@ -3390,7 +3390,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3513,18 +3513,18 @@
         <v>1024</v>
       </c>
       <c r="F6" s="2">
-        <v>0.17330000000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>36.384999999999998</v>
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>36.392000000000003</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
-        <v>0.17219999999999999</v>
+        <v>0.1699</v>
       </c>
       <c r="K6" s="2">
-        <v>36.463999999999999</v>
+        <v>36.488</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3570,16 +3570,16 @@
         <v>37.872</v>
       </c>
       <c r="L7" s="2">
-        <v>0.25040000000000001</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="M7" s="2">
-        <v>37.947000000000003</v>
+        <v>37.938000000000002</v>
       </c>
       <c r="N7" s="2">
-        <v>0.24629999999999999</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="O7" s="2">
-        <v>37.759</v>
+        <v>37.811</v>
       </c>
       <c r="P7" s="2">
         <v>0.2525</v>
@@ -3641,29 +3641,29 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -3678,19 +3678,19 @@
       <c r="D11" s="1">
         <v>39.484000000000002</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>21</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>40</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
@@ -3705,7 +3705,7 @@
       <c r="D12" s="1">
         <v>34.988999999999997</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3780,10 +3780,10 @@
         <v>1024</v>
       </c>
       <c r="F15" s="2">
-        <v>0.2142</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>33.749000000000002</v>
+        <v>33.779000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3832,79 +3832,82 @@
       </c>
     </row>
     <row r="26" spans="5:19">
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="5:19">
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="5:19">
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
     <row r="29" spans="5:19">
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
     </row>
     <row r="30" spans="5:19">
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
     </row>
     <row r="31" spans="5:19">
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
     </row>
     <row r="32" spans="5:19">
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
     </row>
     <row r="33" spans="14:19">
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
     </row>
     <row r="34" spans="14:19">
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -3919,9 +3922,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA5530-8C40-B441-BDA3-CCDDADB1E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8526A89-1FC3-F443-88A5-24CA65995A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -421,7 +421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.17319999999999999</c:v>
+                  <c:v>0.17460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.25700000000000001</c:v>
@@ -436,7 +436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.392000000000003</c:v>
+                  <c:v>36.523000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.741</c:v>
@@ -565,7 +565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.1699</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2545</c:v>
@@ -580,7 +580,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.488</c:v>
+                  <c:v>36.475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.872</c:v>
@@ -640,7 +640,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.24970000000000001</c:v>
+                  <c:v>0.25019999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +652,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.938000000000002</c:v>
+                  <c:v>38.015999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,7 +1533,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.30559999999999998</c:v>
+                  <c:v>0.30780000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1545,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>34.654000000000003</c:v>
+                  <c:v>34.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3513,18 +3513,18 @@
         <v>1024</v>
       </c>
       <c r="F6" s="2">
-        <v>0.17319999999999999</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="G6" s="4">
-        <v>36.392000000000003</v>
+        <v>36.523000000000003</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
-        <v>0.1699</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K6" s="2">
-        <v>36.488</v>
+        <v>36.475999999999999</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3570,10 +3570,10 @@
         <v>37.872</v>
       </c>
       <c r="L7" s="2">
-        <v>0.24970000000000001</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="M7" s="2">
-        <v>37.938000000000002</v>
+        <v>38.015999999999998</v>
       </c>
       <c r="N7" s="2">
         <v>0.24660000000000001</v>
@@ -3815,10 +3815,10 @@
         <v>34.722999999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>0.30559999999999998</v>
+        <v>0.30780000000000002</v>
       </c>
       <c r="K16" s="2">
-        <v>34.654000000000003</v>
+        <v>34.67</v>
       </c>
     </row>
     <row r="17" spans="5:19">

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8526A89-1FC3-F443-88A5-24CA65995A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F440C71-390C-5046-8478-4C36099CA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -640,7 +640,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.25019999999999998</c:v>
+                  <c:v>0.25059999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,7 +652,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>38.015999999999998</c:v>
+                  <c:v>38.026000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,158 +665,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>37(21)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$4:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>0.24660000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$4:$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>37.811</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4414-AA4B-A0E7-D8669BC3B20D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>38(25)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$4:$P$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>0.2525</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>37.729999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4414-AA4B-A0E7-D8669BC3B20D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$R$2</c:f>
@@ -859,7 +709,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.2329</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +721,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.747999999999998</c:v>
+                  <c:v>37.819000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3570,10 +3420,10 @@
         <v>37.872</v>
       </c>
       <c r="L7" s="2">
-        <v>0.25019999999999998</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="M7" s="2">
-        <v>38.015999999999998</v>
+        <v>38.026000000000003</v>
       </c>
       <c r="N7" s="2">
         <v>0.24660000000000001</v>
@@ -3588,10 +3438,10 @@
         <v>37.729999999999997</v>
       </c>
       <c r="R7" s="2">
-        <v>0.2329</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="S7" s="2">
-        <v>37.747999999999998</v>
+        <v>37.819000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:24">

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F440C71-390C-5046-8478-4C36099CA6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F61BA1-08BE-844E-90F3-28A0082B694A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -132,9 +132,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,7 +568,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.16800000000000001</c:v>
+                  <c:v>0.17319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2545</c:v>
@@ -580,7 +583,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.475999999999999</c:v>
+                  <c:v>36.536999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.872</c:v>
@@ -3150,82 +3153,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>19</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
@@ -3240,7 +3243,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3365,16 +3368,16 @@
       <c r="F6" s="2">
         <v>0.17460000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>36.523000000000003</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>36.475999999999999</v>
+      <c r="J6" s="3">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>36.536999999999999</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3491,29 +3494,29 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -3528,19 +3531,19 @@
       <c r="D11" s="1">
         <v>39.484000000000002</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>21</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <v>28</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <v>40</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
@@ -3555,7 +3558,7 @@
       <c r="D12" s="1">
         <v>34.988999999999997</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3682,76 +3685,76 @@
       </c>
     </row>
     <row r="26" spans="5:19">
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
     </row>
     <row r="27" spans="5:19">
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" spans="5:19">
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
     </row>
     <row r="29" spans="5:19">
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
     </row>
     <row r="30" spans="5:19">
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
     </row>
     <row r="31" spans="5:19">
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="5:19">
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
     </row>
     <row r="33" spans="14:19">
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
     </row>
     <row r="34" spans="14:19">
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F61BA1-08BE-844E-90F3-28A0082B694A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013591B9-65EA-6640-AE58-29500F569331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -643,7 +643,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.25059999999999999</c:v>
+                  <c:v>0.25090000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +655,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>38.026000000000003</c:v>
+                  <c:v>38.033000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:S10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3423,10 +3423,10 @@
         <v>37.872</v>
       </c>
       <c r="L7" s="2">
-        <v>0.25059999999999999</v>
+        <v>0.25090000000000001</v>
       </c>
       <c r="M7" s="2">
-        <v>38.026000000000003</v>
+        <v>38.033000000000001</v>
       </c>
       <c r="N7" s="2">
         <v>0.24660000000000001</v>
@@ -3758,11 +3758,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:S10"/>
@@ -3775,6 +3770,11 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013591B9-65EA-6640-AE58-29500F569331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BEF1BD-8E19-944C-9A93-036CDA072499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -568,7 +568,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>0.17319999999999999</c:v>
+                  <c:v>0.17280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2545</c:v>
@@ -583,7 +583,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="2">
-                  <c:v>36.536999999999999</c:v>
+                  <c:v>36.581000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37.872</c:v>
@@ -3153,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="143" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3374,10 +3374,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
-        <v>0.17319999999999999</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="K6" s="3">
-        <v>36.536999999999999</v>
+        <v>36.581000000000003</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3758,6 +3758,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:S10"/>
@@ -3770,11 +3775,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/MDMC.xlsx
+++ b/data/MDMC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BEF1BD-8E19-944C-9A93-036CDA072499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB60C2-8D22-CB45-90ED-2397416971D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>RGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
     <t>MDMC(IR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>50(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,6 +434,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.9900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1026</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.17460000000000001</c:v>
                 </c:pt>
@@ -438,6 +455,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>33.655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.042999999999999</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>36.523000000000003</c:v>
                 </c:pt>
@@ -712,7 +735,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>0.23400000000000001</c:v>
+                  <c:v>0.2331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,7 +747,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="3">
-                  <c:v>37.819000000000003</c:v>
+                  <c:v>37.892000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,6 +756,156 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4414-AA4B-A0E7-D8669BC3B20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50(21)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.24840000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$4:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>37.747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8C5-B34B-A420-A32B046BF20D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51(21)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$4:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.25330000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$4:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>37.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8C5-B34B-A420-A32B046BF20D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3153,82 +3326,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>19</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
@@ -3243,7 +3424,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3284,6 +3465,18 @@
         <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3303,8 +3496,12 @@
       <c r="E4" s="2">
         <v>256</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>33.655000000000001</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -3334,8 +3531,12 @@
       <c r="E5" s="2">
         <v>512</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.1026</v>
+      </c>
+      <c r="G5" s="2">
+        <v>35.042999999999999</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3441,10 +3642,22 @@
         <v>37.729999999999997</v>
       </c>
       <c r="R7" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.2331</v>
       </c>
       <c r="S7" s="2">
-        <v>37.819000000000003</v>
+        <v>37.892000000000003</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="U7" s="6">
+        <v>37.747</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="W7" s="6">
+        <v>37.494</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3494,25 +3707,25 @@
       <c r="D10" s="1">
         <v>43.545000000000002</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -3531,19 +3744,19 @@
       <c r="D11" s="1">
         <v>39.484000000000002</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>21</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
         <v>28</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>40</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
@@ -3558,7 +3771,7 @@
       <c r="D12" s="1">
         <v>34.988999999999997</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -3757,7 +3970,10 @@
       <c r="S34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="F1:W1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -3766,7 +3982,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:S10"/>
-    <mergeCell ref="F1:S1"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F11:G11"/>
